--- a/Lab6/Experiment Results/Lab6 Results.xlsx
+++ b/Lab6/Experiment Results/Lab6 Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF536DC-2B55-40D6-9EA5-24C2666F6374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E4108-B93D-4E48-B688-DAC2EE9F7F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Exp No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eps_decay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +75,26 @@
   </si>
   <si>
     <t>Avg. Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR / (a/c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001 / 0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,12 +151,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,22 +442,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="13" width="18" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="26.85546875" style="2" customWidth="1"/>
+    <col min="5" max="14" width="18" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,45 +465,48 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -495,25 +517,69 @@
       <c r="E2" s="2">
         <v>128</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.995</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>0.01</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>0.99</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4</v>
       </c>
       <c r="K2" s="2">
         <v>4</v>
       </c>
       <c r="L2" s="2">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>232.71350000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
         <v>1E-3</v>
       </c>
     </row>

--- a/Lab6/Experiment Results/Lab6 Results.xlsx
+++ b/Lab6/Experiment Results/Lab6 Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E4108-B93D-4E48-B688-DAC2EE9F7F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAACFA-A850-4365-B441-F520E2DBF694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,8 @@
     <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="2" customWidth="1"/>
-    <col min="5" max="14" width="18" style="2" customWidth="1"/>
+    <col min="5" max="13" width="18" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -581,6 +582,9 @@
       </c>
       <c r="M3" s="2">
         <v>1E-3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>263.41599992959601</v>
       </c>
     </row>
   </sheetData>

--- a/Lab6/Experiment Results/Lab6 Results.xlsx
+++ b/Lab6/Experiment Results/Lab6 Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAACFA-A850-4365-B441-F520E2DBF694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34462204-96B0-4171-B411-565D7B523328}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Exp No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Epsilon </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Adam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +91,10 @@
   </si>
   <si>
     <t>nan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Episode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -466,16 +466,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -496,10 +496,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -518,8 +518,11 @@
       <c r="E2" s="2">
         <v>128</v>
       </c>
+      <c r="F2" s="2">
+        <v>10000</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
         <v>0.995</v>
@@ -548,13 +551,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>64</v>
@@ -563,13 +566,13 @@
         <v>500000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2">
         <v>0.99</v>
@@ -585,6 +588,47 @@
       </c>
       <c r="N3" s="2">
         <v>263.41599992959601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>128</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Lab6/Experiment Results/Lab6 Results.xlsx
+++ b/Lab6/Experiment Results/Lab6 Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34462204-96B0-4171-B411-565D7B523328}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4775157A-6202-4974-BFEC-49D47DF72088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Exp No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -546,7 +546,7 @@
         <v>232.71350000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -590,7 +590,7 @@
         <v>263.41599992959601</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -629,6 +629,56 @@
       </c>
       <c r="M4" s="2">
         <v>1E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>270.83960000000002</v>
+      </c>
+      <c r="O4" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Lab6/Experiment Results/Lab6 Results.xlsx
+++ b/Lab6/Experiment Results/Lab6 Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4775157A-6202-4974-BFEC-49D47DF72088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8403853-B142-4B05-B340-49246E4DD089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Exp No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -677,8 +677,52 @@
       <c r="M5" s="2">
         <v>1E-3</v>
       </c>
+      <c r="N5" s="2">
+        <v>274.60539999999997</v>
+      </c>
       <c r="O5" s="2">
         <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Lab6/Experiment Results/Lab6 Results.xlsx
+++ b/Lab6/Experiment Results/Lab6 Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8403853-B142-4B05-B340-49246E4DD089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD00F0-EB7C-4E6D-85FF-9743F66B5F68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Exp No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -724,6 +724,56 @@
       <c r="M6" s="2">
         <v>1E-3</v>
       </c>
+      <c r="N6" s="2">
+        <v>266.82029999999997</v>
+      </c>
+      <c r="O6" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Lab6/Experiment Results/Lab6 Results.xlsx
+++ b/Lab6/Experiment Results/Lab6 Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD00F0-EB7C-4E6D-85FF-9743F66B5F68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C3C98C-8205-41D9-A4EC-99068414DE00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Exp No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>Episode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0005 / 0.0005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -771,7 +775,54 @@
       <c r="M7" s="2">
         <v>1E-3</v>
       </c>
+      <c r="N7" s="2">
+        <v>282.85480000000001</v>
+      </c>
       <c r="O7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O8" s="2">
         <v>300</v>
       </c>
     </row>

--- a/Lab6/Experiment Results/Lab6 Results.xlsx
+++ b/Lab6/Experiment Results/Lab6 Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C3C98C-8205-41D9-A4EC-99068414DE00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10AEBA1-5B09-4697-B57A-7C4164726DFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -822,6 +822,9 @@
       <c r="M8" s="2">
         <v>1E-3</v>
       </c>
+      <c r="N8" s="2">
+        <v>266.25540000000001</v>
+      </c>
       <c r="O8" s="2">
         <v>300</v>
       </c>
